--- a/assets/project2f1.xlsx
+++ b/assets/project2f1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dave/Desktop/projekt2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Boroncsok Dominik 9.I\ori-kristof-project2\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7D6BB0-F8D2-E94A-8F0E-453F92C3BCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1D008ACD-4D61-D547-A8F7-A024331D29E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>✅ Van-e megfelelő kontraszt a szöveg és a háttér között? (Pl. nem világoskék szöveg fehér alapon.)</t>
   </si>
@@ -114,13 +113,16 @@
   </si>
   <si>
     <t>4. Egységesség és következetesség (20%)</t>
+  </si>
+  <si>
+    <t>✅</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -212,23 +214,23 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,227 +561,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3033E436-B526-C64D-ADF4-EF5A7045FAC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="177" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="84.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="17.25">
+      <c r="A2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25">
+      <c r="A7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="17.25">
+      <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.25">
+      <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D24" xr:uid="{B838040D-D6EE-E548-9570-2AB773C33377}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D24">
       <formula1>"✅,❌"</formula1>
     </dataValidation>
   </dataValidations>
